--- a/similarities/split_global/harmonic_similarity_timestamps_270.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_270.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:23.260000', '0:00:33.620000')]</t>
+          <t>('0:01:01.600000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
+          <t>('0:00:58.080000', '0:01:05.660000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>isophonics_287</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:00.720000', '0:00:17.050000')]</t>
+          <t>('0:01:05.810340', '0:01:11.679931')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:59.500000', '0:01:08.120000')]</t>
+          <t>('0:01:58.440000', '0:02:01.680000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>isophonics_180</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['F:maj', 'F:min', 'C:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['Bb', 'Bb:min', 'F']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.600000', '0:00:11.320000')]</t>
+          <t>('0:00:46.097000', '0:00:54.196000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:19.780000', '0:00:29.500000')]</t>
+          <t>('0:00:21.278561', '0:00:26.514661')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=0.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=46.097</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=21.278561</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>isophonics_30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['D/7', 'A/3', 'B:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D']]</t>
+          <t>['C:maj/G', 'G:maj', 'A:min/C']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
+          <t>('0:00:11.062412', '0:00:12.567886')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:03.599751', '0:00:07.761836')]</t>
+          <t>('0:00:20.220000', '0:00:25.620000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-30#t=11.062412</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=3.599751']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=20.22</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_83</t>
+          <t>schubert-winterreise_29</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G']]</t>
+          <t>['A#:min', 'F:maj/A', 'A#:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:06.800000', '0:01:13.560000')]</t>
+          <t>('0:00:10.820000', '0:00:17.080000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:14.530000', '0:00:17.430000')]</t>
+          <t>('0:00:11.440000', '0:00:16.380000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=66.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=14.53']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=11.44</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_28</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab', 'Db/5']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'B', 'E/5']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:04:21.828000', '0:04:33.028000')]</t>
+          <t>('0:00:15.300000', '0:00:17.780000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:55.629773', '0:01:10.444104')]</t>
+          <t>('0:00:16.800000', '0:00:19.040000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=261.828']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=15.3</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=16.8</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>schubert-winterreise_169</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+          <t>('0:00:19.440000', '0:00:28.300000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:28.921995', '0:00:33.101587')]</t>
+          <t>('0:02:10.840000', '0:02:15.980000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=19.44</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=28.921995']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=130.84</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>isophonics_132</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>isophonics_233</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:min/E', 'E:7', 'A:min'], ['C:maj', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>['C#:min', 'G#:7', 'C#:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:min', 'C:min/G', 'G:7', 'C:min'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['D:min', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:47.960000', '0:01:01.660000'), ('0:00:40.960000', '0:00:50.540000')]</t>
+          <t>('0:00:24.282834', '0:00:31.446190')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:22.860000', '0:00:29.420000'), ('0:01:02.380000', '0:01:07.200000')]</t>
+          <t>('0:00:36.711000', '0:00:39.787000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=47.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=40.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-132#t=24.282834</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=22.86', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=62.38']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-233#t=36.711</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'F']]</t>
+          <t>['A#:min/F', 'F', 'A#:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:00.440395', '0:00:05.558652')]</t>
+          <t>('0:00:13.360000', '0:00:20.940000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:46.600000', '0:00:49.040000')]</t>
+          <t>('0:00:01.180000', '0:00:06.140000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=0.440395']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=13.36</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=46.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=1.18</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_227</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_164</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min/b3']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:05.672040', '0:00:08.841564')]</t>
+          <t>('0:00:00.360000', '0:00:02.440000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:36.280000', '0:00:38')]</t>
+          <t>('0:00:19.820000', '0:00:29.100000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=5.67204']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=36.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=19.82</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>schubert-winterreise_45</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
+          <t>['C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
+          <t>('0:00:05.860000', '0:00:23.820000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:07.600000', '0:02:13.420000')]</t>
+          <t>('0:00:59.100000', '0:01:09')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=5.86</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=59.1</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:21.780000', '0:00:25.300000')]</t>
+          <t>('0:01:02.530000', '0:01:09.910000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.500000')]</t>
+          <t>('0:00:06.774988', '0:00:12.022698')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=6.774988</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>jaah_19</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>jaah_38</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['C:min7', 'F:7', 'Bb:7']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B', 'F#', 'B']]</t>
+          <t>['A:min7', 'D:7', 'G:7']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:46.560000', '0:00:49.080000')]</t>
+          <t>('0:00:25.570000', '0:00:27.790000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:24.838594', '0:00:43.252018')]</t>
+          <t>('0:00:49.350000', '0:00:56.630000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=46.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-19#t=25.57</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=24.838594']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-38#t=49.35</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'Bb:7', 'F']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'C:7', 'G']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:09.180000', '0:00:15.540000')]</t>
+          <t>('0:00:30.050000', '0:00:41.370000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:14.390000', '0:00:31.310000')]</t>
+          <t>('0:00:25.720000', '0:00:51.960000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=9.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.05</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=14.39']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=25.72</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F:min/C', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
+          <t>('0:00:43.680000', '0:00:45.800000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+          <t>('0:02:09.060000', '0:02:14.200000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.68</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
